--- a/classes_metrics.xlsx
+++ b/classes_metrics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>MethodID</t>
   </si>
@@ -35,229 +35,223 @@
     <t>WMC_class</t>
   </si>
   <si>
-    <t>is_God_Class</t>
-  </si>
-  <si>
     <t>LOC_method</t>
   </si>
   <si>
     <t>CYCLO_method</t>
   </si>
   <si>
-    <t>is_Long_Method</t>
-  </si>
-  <si>
     <t>com.jasml.classes</t>
   </si>
   <si>
+    <t>Attribute_Synthetic</t>
+  </si>
+  <si>
+    <t>Attribute_Synthetic()</t>
+  </si>
+  <si>
+    <t>Method(int,int,int,int,Attribute[])</t>
+  </si>
+  <si>
+    <t>Attribute_InnerClasses.InnerClass</t>
+  </si>
+  <si>
+    <t>InnerClass(int,int,int,int)</t>
+  </si>
+  <si>
+    <t>Attribute_InnerClasses</t>
+  </si>
+  <si>
+    <t>Attribute_InnerClasses(int,int,InnerClass[])</t>
+  </si>
+  <si>
+    <t>Attribute_Code</t>
+  </si>
+  <si>
+    <t>Attribute_Code()</t>
+  </si>
+  <si>
+    <t>Attribute_Code(int,int,int,int,Opcode[],int,ExceptionTableItem[],int,Attribute[])</t>
+  </si>
+  <si>
+    <t>Attribute_Code.Opcode</t>
+  </si>
+  <si>
+    <t>Opcode(int,byte,byte[][])</t>
+  </si>
+  <si>
+    <t>Opcode()</t>
+  </si>
+  <si>
+    <t>Attribute_Code.ExceptionTableItem</t>
+  </si>
+  <si>
+    <t>ExceptionTableItem(int,int,int,int)</t>
+  </si>
+  <si>
+    <t>ConstantPool</t>
+  </si>
+  <si>
+    <t>getConstantPoolCount()</t>
+  </si>
+  <si>
+    <t>ConstantPool(ConstantPoolItem[])</t>
+  </si>
+  <si>
+    <t>getConstant(int)</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>Attribute_Deprecated</t>
+  </si>
+  <si>
+    <t>Attribute_Deprecated()</t>
+  </si>
+  <si>
+    <t>Constant_NameAndType</t>
+  </si>
+  <si>
+    <t>Constant_NameAndType(int,int)</t>
+  </si>
+  <si>
+    <t>Attribute_SourceFile</t>
+  </si>
+  <si>
+    <t>Attribute_SourceFile(int,int)</t>
+  </si>
+  <si>
+    <t>Attribute_LineNumberTable</t>
+  </si>
+  <si>
+    <t>Attribute_LineNumberTable(int,int,LineNumber[])</t>
+  </si>
+  <si>
+    <t>Attribute_LineNumberTable.LineNumber</t>
+  </si>
+  <si>
+    <t>LineNumber(int,int)</t>
+  </si>
+  <si>
+    <t>Constant_Fieldref</t>
+  </si>
+  <si>
+    <t>Constant_Fieldref(int,int)</t>
+  </si>
+  <si>
+    <t>Constant_Double</t>
+  </si>
+  <si>
+    <t>Constant_Double(double)</t>
+  </si>
+  <si>
+    <t>Attribute_ConstantValue</t>
+  </si>
+  <si>
+    <t>Attribute_ConstantValue(int,int)</t>
+  </si>
+  <si>
+    <t>Attribute_LocalVariableTable</t>
+  </si>
+  <si>
+    <t>Attribute_LocalVariableTable(int,int,LocalVariable[])</t>
+  </si>
+  <si>
+    <t>Attribute_LocalVariableTable.LocalVariable</t>
+  </si>
+  <si>
+    <t>LocalVariable(int,int,int,int,int)</t>
+  </si>
+  <si>
+    <t>JavaClass</t>
+  </si>
+  <si>
+    <t>JavaClass()</t>
+  </si>
+  <si>
+    <t>Constant_String</t>
+  </si>
+  <si>
+    <t>Constant_String(int)</t>
+  </si>
+  <si>
+    <t>Constant_Float</t>
+  </si>
+  <si>
+    <t>Constant_Float(float)</t>
+  </si>
+  <si>
+    <t>Constant_Integer</t>
+  </si>
+  <si>
+    <t>Constant_Integer(int)</t>
+  </si>
+  <si>
+    <t>Constant_Class</t>
+  </si>
+  <si>
+    <t>Constant_Class(int)</t>
+  </si>
+  <si>
+    <t>Attribute_Exceptions</t>
+  </si>
+  <si>
+    <t>Attribute_Exceptions(int,int,int[])</t>
+  </si>
+  <si>
+    <t>Constant_InterfaceMethodref</t>
+  </si>
+  <si>
+    <t>Constant_InterfaceMethodref(int,int)</t>
+  </si>
+  <si>
+    <t>Constant_Methodref</t>
+  </si>
+  <si>
+    <t>Constant_Methodref(int,int)</t>
+  </si>
+  <si>
+    <t>ConstantPoolItem</t>
+  </si>
+  <si>
+    <t>ConstantPoolItem(byte)</t>
+  </si>
+  <si>
     <t>Attribute</t>
   </si>
   <si>
-    <t>Attribute(int, int, byte[])</t>
-  </si>
-  <si>
-    <t>Attribute(byte, int)</t>
-  </si>
-  <si>
-    <t>Attribute_Code</t>
-  </si>
-  <si>
-    <t>Attribute_Code()</t>
-  </si>
-  <si>
-    <t>Attribute_Code(int, int, int, int, Opcode[], int, ExceptionTableItem[], int, Attribute[])</t>
-  </si>
-  <si>
-    <t>Attribute_Code.Opcode</t>
-  </si>
-  <si>
-    <t>Opcode(int, byte, byte[][])</t>
-  </si>
-  <si>
-    <t>Opcode()</t>
-  </si>
-  <si>
-    <t>Attribute_Code.ExceptionTableItem</t>
-  </si>
-  <si>
-    <t>ExceptionTableItem(int, int, int, int)</t>
-  </si>
-  <si>
-    <t>Attribute_ConstantValue</t>
-  </si>
-  <si>
-    <t>Attribute_ConstantValue(int, int)</t>
-  </si>
-  <si>
-    <t>Attribute_Deprecated</t>
-  </si>
-  <si>
-    <t>Attribute_Deprecated()</t>
-  </si>
-  <si>
-    <t>Attribute_Exceptions</t>
-  </si>
-  <si>
-    <t>Attribute_Exceptions(int, int, int[])</t>
-  </si>
-  <si>
-    <t>Attribute_InnerClasses.InnerClass</t>
-  </si>
-  <si>
-    <t>InnerClass(int, int, int, int)</t>
-  </si>
-  <si>
-    <t>Attribute_InnerClasses</t>
-  </si>
-  <si>
-    <t>Attribute_InnerClasses(int, int, InnerClass[])</t>
-  </si>
-  <si>
-    <t>Attribute_LineNumberTable</t>
-  </si>
-  <si>
-    <t>Attribute_LineNumberTable(int, int, LineNumber[])</t>
-  </si>
-  <si>
-    <t>Attribute_LineNumberTable.LineNumber</t>
-  </si>
-  <si>
-    <t>LineNumber(int, int)</t>
-  </si>
-  <si>
-    <t>Attribute_LocalVariableTable</t>
-  </si>
-  <si>
-    <t>Attribute_LocalVariableTable(int, int, LocalVariable[])</t>
-  </si>
-  <si>
-    <t>Attribute_LocalVariableTable.LocalVariable</t>
-  </si>
-  <si>
-    <t>LocalVariable(int, int, int, int, int)</t>
-  </si>
-  <si>
-    <t>Attribute_SourceFile</t>
-  </si>
-  <si>
-    <t>Attribute_SourceFile(int, int)</t>
-  </si>
-  <si>
-    <t>Attribute_Synthetic</t>
-  </si>
-  <si>
-    <t>Attribute_Synthetic()</t>
-  </si>
-  <si>
-    <t>ConstantPool</t>
-  </si>
-  <si>
-    <t>getConstantPoolCount()</t>
-  </si>
-  <si>
-    <t>ConstantPool(ConstantPoolItem[])</t>
-  </si>
-  <si>
-    <t>getConstant(int)</t>
-  </si>
-  <si>
-    <t>toString()</t>
-  </si>
-  <si>
-    <t>ConstantPoolItem</t>
-  </si>
-  <si>
-    <t>ConstantPoolItem(byte)</t>
+    <t>Attribute(int,int,byte[])</t>
+  </si>
+  <si>
+    <t>Attribute(byte,int)</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Field(int,int,int,int,Attribute[])</t>
+  </si>
+  <si>
+    <t>Constant_Utf8</t>
+  </si>
+  <si>
+    <t>Constant_Utf8(String)</t>
+  </si>
+  <si>
+    <t>Constant_Long</t>
+  </si>
+  <si>
+    <t>getValue()</t>
+  </si>
+  <si>
+    <t>Constant_Long(long)</t>
   </si>
   <si>
     <t>Constants</t>
   </si>
   <si>
     <t>Constants()</t>
-  </si>
-  <si>
-    <t>Constant_Class</t>
-  </si>
-  <si>
-    <t>Constant_Class(int)</t>
-  </si>
-  <si>
-    <t>Constant_Double</t>
-  </si>
-  <si>
-    <t>Constant_Double(double)</t>
-  </si>
-  <si>
-    <t>Constant_Fieldref</t>
-  </si>
-  <si>
-    <t>Constant_Fieldref(int, int)</t>
-  </si>
-  <si>
-    <t>Constant_Float</t>
-  </si>
-  <si>
-    <t>Constant_Float(float)</t>
-  </si>
-  <si>
-    <t>Constant_Integer</t>
-  </si>
-  <si>
-    <t>Constant_Integer(int)</t>
-  </si>
-  <si>
-    <t>Constant_InterfaceMethodref</t>
-  </si>
-  <si>
-    <t>Constant_InterfaceMethodref(int, int)</t>
-  </si>
-  <si>
-    <t>Constant_Long</t>
-  </si>
-  <si>
-    <t>getValue()</t>
-  </si>
-  <si>
-    <t>Constant_Long(long)</t>
-  </si>
-  <si>
-    <t>Constant_Methodref</t>
-  </si>
-  <si>
-    <t>Constant_Methodref(int, int)</t>
-  </si>
-  <si>
-    <t>Constant_NameAndType</t>
-  </si>
-  <si>
-    <t>Constant_NameAndType(int, int)</t>
-  </si>
-  <si>
-    <t>Constant_String</t>
-  </si>
-  <si>
-    <t>Constant_String(int)</t>
-  </si>
-  <si>
-    <t>Constant_Utf8</t>
-  </si>
-  <si>
-    <t>Constant_Utf8(String)</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Field(int, int, int, int, Attribute[])</t>
-  </si>
-  <si>
-    <t>JavaClass</t>
-  </si>
-  <si>
-    <t>JavaClass()</t>
-  </si>
-  <si>
-    <t>Method(int, int, int, int, Attribute[])</t>
   </si>
 </sst>
 </file>
@@ -308,17 +302,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.60546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="75.8828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.7109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.28515625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.60546875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="14.890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.91015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.4765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.93359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.90234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="70.23046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.49609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="10.72265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.29296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.78125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -349,46 +341,34 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>32.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -396,34 +376,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>32.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -431,34 +405,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>76.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -466,34 +434,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>76.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.0</v>
       </c>
       <c r="I5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -501,34 +463,28 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" t="n">
         <v>2.0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
+        <v>5.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.0</v>
       </c>
       <c r="I6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -536,34 +492,28 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
         <v>2.0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
+        <v>5.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.0</v>
       </c>
       <c r="I7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -571,34 +521,28 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -606,34 +550,28 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F9" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -641,34 +579,28 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
       </c>
       <c r="F10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -676,34 +608,28 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F11" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
+        <v>7.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.0</v>
       </c>
       <c r="I11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -711,34 +637,28 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F12" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+        <v>7.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.0</v>
       </c>
       <c r="I12" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -746,34 +666,28 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F13" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
+        <v>7.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.0</v>
       </c>
       <c r="I13" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -781,34 +695,28 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
+        <v>7.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -816,34 +724,28 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
       </c>
       <c r="F15" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -851,34 +753,28 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F16" t="n">
-        <v>32.0</v>
+        <v>1.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.0</v>
       </c>
       <c r="I16" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -886,34 +782,28 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F17" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -921,34 +811,28 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
       </c>
       <c r="F18" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.0</v>
       </c>
       <c r="I18" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -956,34 +840,28 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
       </c>
       <c r="F19" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -991,34 +869,28 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E20" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.0</v>
+        <v>1.0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -1026,34 +898,28 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F21" t="n">
-        <v>34.0</v>
+        <v>1.0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K21" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -1061,34 +927,28 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E22" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.0</v>
+        <v>1.0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K22" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -1096,34 +956,28 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E23" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.0</v>
+        <v>1.0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.0</v>
       </c>
       <c r="I23" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -1131,34 +985,28 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F24" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.0</v>
       </c>
       <c r="I24" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K24" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -1166,34 +1014,28 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F25" t="n">
-        <v>1205.0</v>
+        <v>1.0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -1201,34 +1043,28 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -1236,34 +1072,28 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
       </c>
       <c r="E27" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F27" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -1271,34 +1101,28 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
       </c>
-      <c r="H28" t="b">
-        <v>0</v>
+      <c r="H28" t="n">
+        <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J28" t="n">
         <v>0.0</v>
-      </c>
-      <c r="K28" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1306,34 +1130,28 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E29" t="n">
         <v>2.0</v>
       </c>
       <c r="F29" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K29" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -1341,34 +1159,28 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E30" t="n">
         <v>2.0</v>
       </c>
       <c r="F30" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K30" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -1376,34 +1188,28 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E31" t="n">
         <v>2.0</v>
       </c>
       <c r="F31" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.0</v>
       </c>
       <c r="I31" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -1411,34 +1217,28 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E32" t="n">
         <v>2.0</v>
       </c>
       <c r="F32" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K32" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -1446,34 +1246,28 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E33" t="n">
         <v>2.0</v>
       </c>
       <c r="F33" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -1481,34 +1275,28 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E34" t="n">
         <v>2.0</v>
       </c>
       <c r="F34" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.0</v>
       </c>
       <c r="I34" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K34" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -1516,34 +1304,28 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E35" t="n">
         <v>2.0</v>
       </c>
       <c r="F35" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -1551,34 +1333,28 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E36" t="n">
         <v>2.0</v>
       </c>
       <c r="F36" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.0</v>
       </c>
       <c r="I36" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K36" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
@@ -1586,34 +1362,28 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E37" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F37" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.0</v>
       </c>
       <c r="I37" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K37" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
@@ -1621,34 +1391,28 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E38" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F38" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.0</v>
       </c>
       <c r="I38" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K38" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -1656,34 +1420,28 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E39" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F39" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H39" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.0</v>
       </c>
       <c r="I39" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K39" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -1691,34 +1449,28 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E40" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F40" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.0</v>
       </c>
       <c r="I40" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K40" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
@@ -1726,34 +1478,28 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E41" t="n">
         <v>2.0</v>
       </c>
       <c r="F41" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K41" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -1761,34 +1507,28 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E42" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F42" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K42" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -1796,34 +1536,28 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E43" t="n">
         <v>2.0</v>
       </c>
       <c r="F43" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K43" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -1831,34 +1565,28 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E44" t="n">
         <v>2.0</v>
       </c>
       <c r="F44" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.0</v>
       </c>
       <c r="I44" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K44" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
@@ -1866,34 +1594,28 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F45" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
+        <v>1.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.0</v>
       </c>
       <c r="I45" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K45" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
@@ -1901,34 +1623,28 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
         <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E46" t="n">
         <v>2.0</v>
       </c>
       <c r="F46" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K46" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -1936,34 +1652,28 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="E47" t="n">
         <v>2.0</v>
       </c>
       <c r="F47" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.0</v>
       </c>
       <c r="I47" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K47" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -1971,34 +1681,28 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
         <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E48" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F48" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
+        <v>3.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.0</v>
       </c>
       <c r="I48" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K48" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -2006,34 +1710,28 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
         <v>77</v>
       </c>
-      <c r="D49" t="s">
-        <v>78</v>
-      </c>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F49" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
+        <v>3.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.0</v>
       </c>
       <c r="I49" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K49" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -2041,34 +1739,28 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F50" t="n">
-        <v>34.0</v>
+        <v>1.0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
+        <v>3.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K50" t="b">
-        <v>0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -2076,34 +1768,28 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="G51" t="n">
         <v>0.0</v>
       </c>
-      <c r="H51" t="b">
-        <v>0</v>
+      <c r="H51" t="n">
+        <v>0.0</v>
       </c>
       <c r="I51" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J51" t="n">
         <v>0.0</v>
-      </c>
-      <c r="K51" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
